--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -476,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -623,9 +623,6 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>8.08</v>
-      </c>
       <c r="C4">
         <v>1</v>
       </c>
